--- a/data/trans_dic/P08_1_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P08_1_R-Estudios-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.4120968678404874</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.4415432934016962</v>
+        <v>0.4415432934016961</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2124909032386211</v>
+        <v>0.2132757799905078</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2859329523038816</v>
+        <v>0.2891659812398386</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2940015615765686</v>
+        <v>0.2950896918041992</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.284413070783767</v>
+        <v>0.2823747450268669</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.3920777655029066</v>
+        <v>0.3888644393923805</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.4606944878713614</v>
+        <v>0.4534062906345608</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.4412458363401478</v>
+        <v>0.4427453532271107</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.5023195005734321</v>
+        <v>0.5014911356635022</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.3168621542082751</v>
+        <v>0.3168659186202227</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.3928132345230619</v>
+        <v>0.3922578465674129</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.3887541669079697</v>
+        <v>0.3872204430161577</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.4184028262856164</v>
+        <v>0.4187643088906782</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2625044649467018</v>
+        <v>0.262824306964586</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3479049589409713</v>
+        <v>0.3536299993455497</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3601498373707198</v>
+        <v>0.3618225616455808</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3572928884178401</v>
+        <v>0.353277464675309</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.4473249213963471</v>
+        <v>0.4444471956979255</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.5146942094974324</v>
+        <v>0.51123521601088</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.5064657584495083</v>
+        <v>0.5099768051174601</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.5541799091152481</v>
+        <v>0.556996365110312</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.354602549576293</v>
+        <v>0.3558161234380112</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.4348683899776875</v>
+        <v>0.4346029566647356</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.4370386310430732</v>
+        <v>0.4379083011418461</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.4630565855784577</v>
+        <v>0.4644916097225482</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.04525282062918323</v>
+        <v>0.04521548738055475</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.06666706015254738</v>
+        <v>0.06518057945222318</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.07668744249126366</v>
+        <v>0.07746520756650496</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.111996265188135</v>
+        <v>0.1104986292581692</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.07099694459475733</v>
+        <v>0.0715019334241143</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1040593703022794</v>
+        <v>0.1027900785552303</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1253195617169049</v>
+        <v>0.125501155849536</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1390041381602407</v>
+        <v>0.137917464877917</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.06113755304660331</v>
+        <v>0.0611886943568176</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.0886649717198703</v>
+        <v>0.08809072453055904</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1041574694299437</v>
+        <v>0.1037475579727108</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1287323284061466</v>
+        <v>0.1289902391663297</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.06867775758331042</v>
+        <v>0.06793330507402129</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.09242872949572217</v>
+        <v>0.09148579178143985</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1020617826999416</v>
+        <v>0.1022074845916627</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1409387610604389</v>
+        <v>0.1397215462814031</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1000039963141815</v>
+        <v>0.09996815409051395</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1366212404829855</v>
+        <v>0.1380713716141352</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1581316442967161</v>
+        <v>0.1602360000835295</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1654030375577805</v>
+        <v>0.1638434080413214</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.07889123438492529</v>
+        <v>0.07906152463681977</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1094701297896411</v>
+        <v>0.1085568981570264</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1257583569279187</v>
+        <v>0.1244659306405973</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1474651727869122</v>
+        <v>0.148260374211917</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.06933531520158805</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.06450476076067846</v>
+        <v>0.06450476076067845</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.0904273541742675</v>
@@ -957,7 +957,7 @@
         <v>0.08374301191010938</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.09007195511413643</v>
+        <v>0.09007195511413645</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.06826049885909029</v>
@@ -969,7 +969,7 @@
         <v>0.07655397935163542</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.07749419306872578</v>
+        <v>0.07749419306872576</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.03170898765764325</v>
+        <v>0.03186095886345897</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.05015388952423679</v>
+        <v>0.04836974895431544</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.04874639423592719</v>
+        <v>0.0477506289247277</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.0477602981279127</v>
+        <v>0.04802702331925231</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.06652561786432308</v>
+        <v>0.06668609493510523</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.06021771381295211</v>
+        <v>0.05945768145313823</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.06104916601036592</v>
+        <v>0.06194478828398361</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.07318537596163105</v>
+        <v>0.07357423976659305</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.05396535565128537</v>
+        <v>0.05323603562413302</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.06149845758635153</v>
+        <v>0.06214663508267808</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.05918911882559594</v>
+        <v>0.06054120506870616</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.06584076535730585</v>
+        <v>0.06704020582092059</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.06961445483571985</v>
+        <v>0.07062167429971127</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1068345387686592</v>
+        <v>0.104106982673486</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.09471887626421321</v>
+        <v>0.09674434773814528</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.08490197248724267</v>
+        <v>0.08417335345622837</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.122020291474004</v>
+        <v>0.1196760495580938</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1158041166348856</v>
+        <v>0.1163420714829839</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1133642017831729</v>
+        <v>0.112676363883759</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1080185032256512</v>
+        <v>0.1090640446163788</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.08733105815173069</v>
+        <v>0.08605165957090724</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.09942022394574622</v>
+        <v>0.1011354609682312</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.09465994632113998</v>
+        <v>0.09502557581788675</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.09066018668750389</v>
+        <v>0.09206443285686879</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.2265017450609838</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.2224859402205961</v>
+        <v>0.222485940220596</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.163735250551618</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1011213096550682</v>
+        <v>0.1014001355431035</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1337991125239735</v>
+        <v>0.1341730133900597</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1284249357438046</v>
+        <v>0.126747738967135</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1329696268312859</v>
+        <v>0.1332950355471954</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2002753438376749</v>
+        <v>0.2025992939548414</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2384056789638836</v>
+        <v>0.2383893939610421</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2122684810431653</v>
+        <v>0.2113245827110886</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2113596618746246</v>
+        <v>0.2117760493214401</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1548568039672117</v>
+        <v>0.1552707767782657</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1908391111374705</v>
+        <v>0.1911825180784965</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1742953624726978</v>
+        <v>0.1747258989670998</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.177200395747341</v>
+        <v>0.1774170150504167</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1226355675215334</v>
+        <v>0.1226101072644325</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1592706459490331</v>
+        <v>0.1591587366150644</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1512009494551377</v>
+        <v>0.1507990258487228</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1577375347612504</v>
+        <v>0.1576243344419949</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.228585298546577</v>
+        <v>0.2301422573582375</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2680217468399346</v>
+        <v>0.2669075413783218</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.24080248874225</v>
+        <v>0.2414003379650578</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2335018770432121</v>
+        <v>0.2331636061211642</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1729332509087108</v>
+        <v>0.1728210640319993</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2121856568609604</v>
+        <v>0.2108240890899177</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1942589331187269</v>
+        <v>0.1931606522690855</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.193101099140894</v>
+        <v>0.1933128679622981</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>219232</v>
+        <v>220042</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>278683</v>
+        <v>281834</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>221779</v>
+        <v>222600</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>164541</v>
+        <v>163362</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>515627</v>
+        <v>511401</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>616316</v>
+        <v>606566</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>438890</v>
+        <v>440381</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>412926</v>
+        <v>412245</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>743623</v>
+        <v>743632</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>908357</v>
+        <v>907073</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>679934</v>
+        <v>677251</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>586001</v>
+        <v>586507</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>270832</v>
+        <v>271162</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>339083</v>
+        <v>344663</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>271678</v>
+        <v>272940</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>206704</v>
+        <v>204381</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>588283</v>
+        <v>584498</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>688556</v>
+        <v>683929</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>503761</v>
+        <v>507254</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>455557</v>
+        <v>457872</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>832194</v>
+        <v>835042</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>1005607</v>
+        <v>1004993</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>764384</v>
+        <v>765905</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>648542</v>
+        <v>650552</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>76632</v>
+        <v>76568</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>130931</v>
+        <v>128012</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>159233</v>
+        <v>160848</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>249815</v>
+        <v>246474</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>112720</v>
+        <v>113522</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>182916</v>
+        <v>180685</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>249173</v>
+        <v>249534</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>301832</v>
+        <v>299473</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>200598</v>
+        <v>200765</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>329990</v>
+        <v>327853</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>423367</v>
+        <v>421701</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>566674</v>
+        <v>567810</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>116300</v>
+        <v>115039</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>181526</v>
+        <v>179674</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>211920</v>
+        <v>212222</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>314373</v>
+        <v>311658</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>158774</v>
+        <v>158717</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>240153</v>
+        <v>242702</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>314413</v>
+        <v>318597</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>359155</v>
+        <v>355768</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>258849</v>
+        <v>259408</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>407422</v>
+        <v>404023</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>511168</v>
+        <v>505915</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>649136</v>
+        <v>652636</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>17485</v>
+        <v>17568</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>24133</v>
+        <v>23275</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>26659</v>
+        <v>26114</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>33986</v>
+        <v>34175</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>31694</v>
+        <v>31770</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>27618</v>
+        <v>27269</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>33525</v>
+        <v>34016</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>53782</v>
+        <v>54068</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>55467</v>
+        <v>54717</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>57797</v>
+        <v>58406</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>64873</v>
+        <v>66355</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>95236</v>
+        <v>96971</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>38386</v>
+        <v>38941</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>51407</v>
+        <v>50094</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>51800</v>
+        <v>52908</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>60415</v>
+        <v>59897</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>58132</v>
+        <v>57015</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>53111</v>
+        <v>53358</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>62253</v>
+        <v>61875</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>79380</v>
+        <v>80149</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>89761</v>
+        <v>88446</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>93436</v>
+        <v>95048</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>103750</v>
+        <v>104151</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>131137</v>
+        <v>133168</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>331328</v>
+        <v>332242</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>457564</v>
+        <v>458842</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>433770</v>
+        <v>428105</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>468144</v>
+        <v>469290</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>676770</v>
+        <v>684623</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>847349</v>
+        <v>847291</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>749754</v>
+        <v>746420</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>788014</v>
+        <v>789566</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>1030687</v>
+        <v>1033442</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>1330914</v>
+        <v>1333309</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>1204332</v>
+        <v>1207307</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>1284524</v>
+        <v>1286094</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>401821</v>
+        <v>401737</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>544671</v>
+        <v>544288</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>510699</v>
+        <v>509342</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>555344</v>
+        <v>554945</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>772435</v>
+        <v>777696</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>952611</v>
+        <v>948651</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>850538</v>
+        <v>852650</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>870567</v>
+        <v>869306</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1150999</v>
+        <v>1150252</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>1479785</v>
+        <v>1470290</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>1342274</v>
+        <v>1334686</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>1399788</v>
+        <v>1401323</v>
       </c>
     </row>
     <row r="20">
